--- a/apr6_all_scripts/Jason_comp_2005_01_21_Apr3.xlsx
+++ b/apr6_all_scripts/Jason_comp_2005_01_21_Apr3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3439" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5368" uniqueCount="1212">
   <si>
     <t>cell_name</t>
   </si>
@@ -2899,6 +2899,756 @@
   </si>
   <si>
     <t>126.4</t>
+  </si>
+  <si>
+    <t>2016_09_02_01_0008.abf</t>
+  </si>
+  <si>
+    <t>127.9</t>
+  </si>
+  <si>
+    <t>-37.6557</t>
+  </si>
+  <si>
+    <t>82.1702</t>
+  </si>
+  <si>
+    <t>-36.6586</t>
+  </si>
+  <si>
+    <t>-74.1903</t>
+  </si>
+  <si>
+    <t>138.1</t>
+  </si>
+  <si>
+    <t>43.2347</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>-48.6532</t>
+  </si>
+  <si>
+    <t>-55.985</t>
+  </si>
+  <si>
+    <t>-63.3167</t>
+  </si>
+  <si>
+    <t>-70.6484</t>
+  </si>
+  <si>
+    <t>80.96</t>
+  </si>
+  <si>
+    <t>149.12</t>
+  </si>
+  <si>
+    <t>148.74</t>
+  </si>
+  <si>
+    <t>27.16</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>146.12</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>153.2</t>
+  </si>
+  <si>
+    <t>101.52</t>
+  </si>
+  <si>
+    <t>101.14</t>
+  </si>
+  <si>
+    <t>98.52</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>132.18</t>
+  </si>
+  <si>
+    <t>120.58</t>
+  </si>
+  <si>
+    <t>138.72</t>
+  </si>
+  <si>
+    <t>118.22</t>
+  </si>
+  <si>
+    <t>132.88</t>
+  </si>
+  <si>
+    <t>121.26</t>
+  </si>
+  <si>
+    <t>139.48</t>
+  </si>
+  <si>
+    <t>118.94</t>
+  </si>
+  <si>
+    <t>132.56</t>
+  </si>
+  <si>
+    <t>139.14</t>
+  </si>
+  <si>
+    <t>118.62</t>
+  </si>
+  <si>
+    <t>114.96</t>
+  </si>
+  <si>
+    <t>106.52</t>
+  </si>
+  <si>
+    <t>119.54</t>
+  </si>
+  <si>
+    <t>100.58</t>
+  </si>
+  <si>
+    <t>169.4</t>
+  </si>
+  <si>
+    <t>125.5</t>
+  </si>
+  <si>
+    <t>142.7</t>
+  </si>
+  <si>
+    <t>10.54</t>
+  </si>
+  <si>
+    <t>11.28</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>9.84</t>
+  </si>
+  <si>
+    <t>7.76</t>
+  </si>
+  <si>
+    <t>13.92</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>152.04</t>
+  </si>
+  <si>
+    <t>152.78</t>
+  </si>
+  <si>
+    <t>152.44</t>
+  </si>
+  <si>
+    <t>127.34</t>
+  </si>
+  <si>
+    <t>140.24</t>
+  </si>
+  <si>
+    <t>140.98</t>
+  </si>
+  <si>
+    <t>140.64</t>
+  </si>
+  <si>
+    <t>115.54</t>
+  </si>
+  <si>
+    <t>143.7</t>
+  </si>
+  <si>
+    <t>-20.9584</t>
+  </si>
+  <si>
+    <t>-63.2821</t>
+  </si>
+  <si>
+    <t>-67.4738</t>
+  </si>
+  <si>
+    <t>-71.6655</t>
+  </si>
+  <si>
+    <t>-75.8572</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>130.64</t>
+  </si>
+  <si>
+    <t>92.52</t>
+  </si>
+  <si>
+    <t>42.14</t>
+  </si>
+  <si>
+    <t>82.68</t>
+  </si>
+  <si>
+    <t>120.44</t>
+  </si>
+  <si>
+    <t>AHP_repolarizationtime(ms)</t>
+  </si>
+  <si>
+    <t>163.9</t>
+  </si>
+  <si>
+    <t>-18.9856</t>
+  </si>
+  <si>
+    <t>-18.0737</t>
+  </si>
+  <si>
+    <t>-24.0345</t>
+  </si>
+  <si>
+    <t>-17.8616</t>
+  </si>
+  <si>
+    <t>-17.4257</t>
+  </si>
+  <si>
+    <t>-18.766</t>
+  </si>
+  <si>
+    <t>-18.9476</t>
+  </si>
+  <si>
+    <t>-21.6375</t>
+  </si>
+  <si>
+    <t>-59.0699</t>
+  </si>
+  <si>
+    <t>-46.5963</t>
+  </si>
+  <si>
+    <t>-47.8632</t>
+  </si>
+  <si>
+    <t>-44.6587</t>
+  </si>
+  <si>
+    <t>-47.9959</t>
+  </si>
+  <si>
+    <t>-47.3393</t>
+  </si>
+  <si>
+    <t>-44.0959</t>
+  </si>
+  <si>
+    <t>-42.1182</t>
+  </si>
+  <si>
+    <t>-41.4914</t>
+  </si>
+  <si>
+    <t>-13.0522</t>
+  </si>
+  <si>
+    <t>-50.3934</t>
+  </si>
+  <si>
+    <t>-51.478</t>
+  </si>
+  <si>
+    <t>-49.4656</t>
+  </si>
+  <si>
+    <t>-51.5682</t>
+  </si>
+  <si>
+    <t>-50.8245</t>
+  </si>
+  <si>
+    <t>-47.8491</t>
+  </si>
+  <si>
+    <t>-45.9077</t>
+  </si>
+  <si>
+    <t>-45.8189</t>
+  </si>
+  <si>
+    <t>-24.8662</t>
+  </si>
+  <si>
+    <t>-54.1905</t>
+  </si>
+  <si>
+    <t>-55.0927</t>
+  </si>
+  <si>
+    <t>-54.2725</t>
+  </si>
+  <si>
+    <t>-55.1405</t>
+  </si>
+  <si>
+    <t>-54.3096</t>
+  </si>
+  <si>
+    <t>-51.6023</t>
+  </si>
+  <si>
+    <t>-49.6972</t>
+  </si>
+  <si>
+    <t>-50.1464</t>
+  </si>
+  <si>
+    <t>-36.6802</t>
+  </si>
+  <si>
+    <t>-57.9876</t>
+  </si>
+  <si>
+    <t>-58.7075</t>
+  </si>
+  <si>
+    <t>-59.0794</t>
+  </si>
+  <si>
+    <t>-58.7128</t>
+  </si>
+  <si>
+    <t>-57.7947</t>
+  </si>
+  <si>
+    <t>-55.3555</t>
+  </si>
+  <si>
+    <t>-53.4867</t>
+  </si>
+  <si>
+    <t>-54.4739</t>
+  </si>
+  <si>
+    <t>-48.4942</t>
+  </si>
+  <si>
+    <t>52.44</t>
+  </si>
+  <si>
+    <t>38.14</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>44.6</t>
+  </si>
+  <si>
+    <t>47.46</t>
+  </si>
+  <si>
+    <t>45.38</t>
+  </si>
+  <si>
+    <t>36.86</t>
+  </si>
+  <si>
+    <t>44.64</t>
+  </si>
+  <si>
+    <t>110.96</t>
+  </si>
+  <si>
+    <t>112.04</t>
+  </si>
+  <si>
+    <t>79.22</t>
+  </si>
+  <si>
+    <t>75.26</t>
+  </si>
+  <si>
+    <t>120.46</t>
+  </si>
+  <si>
+    <t>111.48</t>
+  </si>
+  <si>
+    <t>77.44</t>
+  </si>
+  <si>
+    <t>85.76</t>
+  </si>
+  <si>
+    <t>121.58</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>66.78</t>
+  </si>
+  <si>
+    <t>57.76</t>
+  </si>
+  <si>
+    <t>55.94</t>
+  </si>
+  <si>
+    <t>64.56</t>
+  </si>
+  <si>
+    <t>74.08</t>
+  </si>
+  <si>
+    <t>56.56</t>
+  </si>
+  <si>
+    <t>58.02</t>
+  </si>
+  <si>
+    <t>69.2</t>
+  </si>
+  <si>
+    <t>116.86</t>
+  </si>
+  <si>
+    <t>32.34</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>31.46</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>25.22</t>
+  </si>
+  <si>
+    <t>25.74</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>83.86</t>
+  </si>
+  <si>
+    <t>17.84</t>
+  </si>
+  <si>
+    <t>6.82</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>10.86</t>
+  </si>
+  <si>
+    <t>12.92</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>10.58</t>
+  </si>
+  <si>
+    <t>9.52</t>
+  </si>
+  <si>
+    <t>25.72</t>
+  </si>
+  <si>
+    <t>59.52</t>
+  </si>
+  <si>
+    <t>61.06</t>
+  </si>
+  <si>
+    <t>54.82</t>
+  </si>
+  <si>
+    <t>62.94</t>
+  </si>
+  <si>
+    <t>74.46</t>
+  </si>
+  <si>
+    <t>55.9</t>
+  </si>
+  <si>
+    <t>58.58</t>
+  </si>
+  <si>
+    <t>70.44</t>
+  </si>
+  <si>
+    <t>104.02</t>
+  </si>
+  <si>
+    <t>81.78</t>
+  </si>
+  <si>
+    <t>73.52</t>
+  </si>
+  <si>
+    <t>118.28</t>
+  </si>
+  <si>
+    <t>111.12</t>
+  </si>
+  <si>
+    <t>76.06</t>
+  </si>
+  <si>
+    <t>85.86</t>
+  </si>
+  <si>
+    <t>122.34</t>
+  </si>
+  <si>
+    <t>105.54</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>115.6</t>
+  </si>
+  <si>
+    <t>109.5</t>
+  </si>
+  <si>
+    <t>157.2</t>
+  </si>
+  <si>
+    <t>122.5</t>
+  </si>
+  <si>
+    <t>136.4</t>
+  </si>
+  <si>
+    <t>123.8</t>
+  </si>
+  <si>
+    <t>-19.4258</t>
+  </si>
+  <si>
+    <t>-19.9451</t>
+  </si>
+  <si>
+    <t>-18.9652</t>
+  </si>
+  <si>
+    <t>-18.0299</t>
+  </si>
+  <si>
+    <t>-17.9413</t>
+  </si>
+  <si>
+    <t>-57.2503</t>
+  </si>
+  <si>
+    <t>-56.4351</t>
+  </si>
+  <si>
+    <t>-57.6137</t>
+  </si>
+  <si>
+    <t>-57.9765</t>
+  </si>
+  <si>
+    <t>-58.0761</t>
+  </si>
+  <si>
+    <t>-61.1354</t>
+  </si>
+  <si>
+    <t>-60.4241</t>
+  </si>
+  <si>
+    <t>-61.4067</t>
+  </si>
+  <si>
+    <t>-61.5825</t>
+  </si>
+  <si>
+    <t>-61.6644</t>
+  </si>
+  <si>
+    <t>-65.0206</t>
+  </si>
+  <si>
+    <t>-64.4131</t>
+  </si>
+  <si>
+    <t>-65.1998</t>
+  </si>
+  <si>
+    <t>-65.1884</t>
+  </si>
+  <si>
+    <t>-65.2527</t>
+  </si>
+  <si>
+    <t>-68.9057</t>
+  </si>
+  <si>
+    <t>-68.4022</t>
+  </si>
+  <si>
+    <t>-68.9928</t>
+  </si>
+  <si>
+    <t>-68.7944</t>
+  </si>
+  <si>
+    <t>-68.8409</t>
+  </si>
+  <si>
+    <t>63.14</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>55.92</t>
+  </si>
+  <si>
+    <t>53.44</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>114.44</t>
+  </si>
+  <si>
+    <t>108.9</t>
+  </si>
+  <si>
+    <t>106.28</t>
+  </si>
+  <si>
+    <t>103.52</t>
+  </si>
+  <si>
+    <t>110.92</t>
+  </si>
+  <si>
+    <t>86.44</t>
+  </si>
+  <si>
+    <t>80.14</t>
+  </si>
+  <si>
+    <t>78.1</t>
+  </si>
+  <si>
+    <t>75.02</t>
+  </si>
+  <si>
+    <t>80.08</t>
+  </si>
+  <si>
+    <t>42.08</t>
+  </si>
+  <si>
+    <t>37.82</t>
+  </si>
+  <si>
+    <t>36.54</t>
+  </si>
+  <si>
+    <t>35.36</t>
+  </si>
+  <si>
+    <t>37.38</t>
+  </si>
+  <si>
+    <t>19.28</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>16.32</t>
+  </si>
+  <si>
+    <t>77.62</t>
+  </si>
+  <si>
+    <t>74.72</t>
+  </si>
+  <si>
+    <t>72.14</t>
+  </si>
+  <si>
+    <t>69.16</t>
+  </si>
+  <si>
+    <t>73.12</t>
+  </si>
+  <si>
+    <t>105.16</t>
+  </si>
+  <si>
+    <t>103.04</t>
+  </si>
+  <si>
+    <t>99.86</t>
+  </si>
+  <si>
+    <t>97.22</t>
+  </si>
+  <si>
+    <t>103.48</t>
+  </si>
+  <si>
+    <t>152.5</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142.1</t>
+  </si>
+  <si>
+    <t>150.3</t>
   </si>
 </sst>
 </file>
@@ -2944,7 +3694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2975,6 +3725,7 @@
     <col min="23" max="23" width="23.42578125" customWidth="true"/>
     <col min="24" max="24" width="12.5703125" customWidth="true"/>
     <col min="25" max="25" width="14.42578125" customWidth="true"/>
+    <col min="26" max="26" width="26.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3053,241 +3804,247 @@
       <c r="Y1" s="0" t="s">
         <v>956</v>
       </c>
+      <c r="Z1" s="0" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>856</v>
+        <v>417</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>861</v>
+        <v>422</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>866</v>
+        <v>427</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>871</v>
+        <v>432</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>876</v>
+        <v>1149</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>881</v>
+        <v>442</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>886</v>
+        <v>447</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>890</v>
+        <v>452</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>895</v>
+        <v>457</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>900</v>
+        <v>461</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>904</v>
+        <v>1154</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>909</v>
+        <v>1159</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>914</v>
+        <v>1164</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>919</v>
+        <v>1169</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>924</v>
+        <v>1174</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>929</v>
+        <v>1179</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>934</v>
+        <v>1184</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>939</v>
+        <v>1189</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>944</v>
+        <v>1194</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>318</v>
+        <v>1198</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>318</v>
+        <v>1203</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>957</v>
+        <v>1208</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>857</v>
+        <v>418</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>862</v>
+        <v>423</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>867</v>
+        <v>428</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>872</v>
+        <v>433</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>877</v>
+        <v>1150</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>882</v>
+        <v>443</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>887</v>
+        <v>448</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>891</v>
+        <v>453</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>896</v>
+        <v>315</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>901</v>
+        <v>462</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>905</v>
+        <v>1155</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>910</v>
+        <v>1160</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>915</v>
+        <v>1165</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>920</v>
+        <v>1170</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>925</v>
+        <v>1175</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>930</v>
+        <v>1180</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>935</v>
+        <v>1185</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>940</v>
+        <v>1190</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>945</v>
+        <v>1195</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>949</v>
+        <v>1199</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>949</v>
+        <v>1204</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>958</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>858</v>
+        <v>419</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>863</v>
+        <v>424</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>868</v>
+        <v>429</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>873</v>
+        <v>434</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>878</v>
+        <v>1151</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>883</v>
+        <v>444</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>888</v>
+        <v>449</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>892</v>
+        <v>454</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>897</v>
+        <v>458</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>902</v>
+        <v>463</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>906</v>
+        <v>1156</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>911</v>
+        <v>1161</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>916</v>
+        <v>1166</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>921</v>
+        <v>1171</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>926</v>
+        <v>1176</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>931</v>
+        <v>1181</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>936</v>
+        <v>1186</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>941</v>
+        <v>1191</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>946</v>
+        <v>1196</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>950</v>
+        <v>1205</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>955</v>
+        <v>538</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>959</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>859</v>
+        <v>420</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>22</v>
@@ -3296,147 +4053,147 @@
         <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>864</v>
+        <v>425</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>869</v>
+        <v>430</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>874</v>
+        <v>435</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>879</v>
+        <v>1152</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>884</v>
+        <v>445</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>889</v>
+        <v>450</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>893</v>
+        <v>455</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>898</v>
+        <v>459</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>900</v>
+        <v>464</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>907</v>
+        <v>1157</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>912</v>
+        <v>1162</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>917</v>
+        <v>1167</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>922</v>
+        <v>1172</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>927</v>
+        <v>1177</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>932</v>
+        <v>1182</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>937</v>
+        <v>1187</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>942</v>
+        <v>1192</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>947</v>
+        <v>1197</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>951</v>
+        <v>1201</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>951</v>
+        <v>1206</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>960</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>860</v>
+        <v>421</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>865</v>
+        <v>426</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>870</v>
+        <v>431</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>875</v>
+        <v>436</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>880</v>
+        <v>1153</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>885</v>
+        <v>446</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>894</v>
+        <v>456</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>899</v>
+        <v>460</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>903</v>
+        <v>465</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>908</v>
+        <v>1158</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>913</v>
+        <v>1163</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>918</v>
+        <v>1168</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>923</v>
+        <v>1173</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>928</v>
+        <v>1178</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>933</v>
+        <v>1183</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>943</v>
+        <v>1193</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>948</v>
+        <v>307</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>952</v>
+        <v>1202</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>952</v>
+        <v>1207</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>961</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="7">
@@ -3459,7 +4216,7 @@
         <v>82</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>101</v>
+        <v>1040</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>120</v>
@@ -3477,37 +4234,43 @@
         <v>194</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>207</v>
+        <v>1049</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>225</v>
+        <v>1058</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>243</v>
+        <v>1067</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>261</v>
+        <v>1076</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>843</v>
+        <v>1085</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>845</v>
+        <v>1094</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>848</v>
+        <v>1103</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>334</v>
+        <v>1111</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>851</v>
+        <v>1120</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>854</v>
+        <v>1129</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>854</v>
+        <v>1137</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="8">
@@ -3530,7 +4293,7 @@
         <v>83</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>102</v>
+        <v>1041</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>121</v>
@@ -3548,37 +4311,43 @@
         <v>195</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>208</v>
+        <v>1050</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>226</v>
+        <v>1059</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>244</v>
+        <v>1068</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>262</v>
+        <v>1077</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>416</v>
+        <v>1086</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>846</v>
+        <v>1095</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>849</v>
+        <v>1104</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>335</v>
+        <v>1112</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>852</v>
+        <v>1121</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>855</v>
+        <v>1130</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>855</v>
+        <v>1138</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="9">
@@ -3601,7 +4370,7 @@
         <v>84</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>103</v>
+        <v>1042</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>122</v>
@@ -3619,37 +4388,43 @@
         <v>196</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>209</v>
+        <v>1051</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>227</v>
+        <v>1060</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>245</v>
+        <v>1069</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>263</v>
+        <v>1078</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>282</v>
+        <v>1087</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>300</v>
+        <v>1096</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>318</v>
+        <v>1105</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>336</v>
+        <v>1113</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>354</v>
+        <v>1122</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>369</v>
+        <v>1131</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>369</v>
+        <v>1139</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="10">
@@ -3672,7 +4447,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>104</v>
+        <v>1043</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -3690,37 +4465,43 @@
         <v>197</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>210</v>
+        <v>1052</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>228</v>
+        <v>1061</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>246</v>
+        <v>1070</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>264</v>
+        <v>1079</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>283</v>
+        <v>1088</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>301</v>
+        <v>1097</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>319</v>
+        <v>1106</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>337</v>
+        <v>1114</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>355</v>
+        <v>1123</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>370</v>
+        <v>819</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>378</v>
+        <v>1140</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="11">
